--- a/Training/moving/mountain to toe touch/2-split.xlsx
+++ b/Training/moving/mountain to toe touch/2-split.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6430218289e9316d/Documents/GitHub/UHF-RFID/Training/moving/mountain to toe touch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{7B385A02-2F62-431B-A6FE-B98C77878F70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6EC5005C-B80E-4581-BDF1-BB7FC81C33FC}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="8_{7B385A02-2F62-431B-A6FE-B98C77878F70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DF46BD5C-9C91-4093-957E-0DB865E45A67}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-cleaned" sheetId="1" r:id="rId1"/>
@@ -709,6 +709,29 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Warrior</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> to Mountain RSSI: Run 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1409,10 +1432,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$C$1:$C$132</c:f>
+              <c:f>Sheet3!$C:$C</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="132"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>-52</c:v>
                 </c:pt>
@@ -1808,6 +1831,243 @@
                 </c:pt>
                 <c:pt idx="131">
                   <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-51</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-59</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-59</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-52</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2255,10 +2515,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$C$1:$C$198</c:f>
+              <c:f>Sheet2!$C:$C</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="198"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>-59</c:v>
                 </c:pt>
@@ -2669,6 +2929,15 @@
                 </c:pt>
                 <c:pt idx="136">
                   <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-57.751824817518248</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.62756558009560948</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3083,10 +3352,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$C$50</c:f>
+              <c:f>Sheet1!$C:$C</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>-55</c:v>
                 </c:pt>
@@ -3236,6 +3505,234 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-56</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3244,2634 +3741,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000010-4DD0-4B4D-9BBF-9D10164AD156}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet4!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss.00</c:formatCode>
-                <c:ptCount val="1048576"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet4!$C$1:$C$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4DD0-4B4D-9BBF-9D10164AD156}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>e2001d8712461320db93</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet3!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss.00</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>44277.648013564816</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44277.648013935184</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44277.648014398146</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44277.648014861108</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44277.648015231483</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44277.648015787039</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44277.648016620369</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44277.648017083331</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44277.648018472224</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44277.648018749998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44277.648019768516</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44277.648020324072</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44277.648020879627</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44277.648021527777</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44277.64802226852</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44277.648023009257</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44277.648023657406</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44277.648024305556</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44277.648025138886</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44277.648025972223</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44277.648026620373</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44277.648027453703</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44277.64802828704</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44277.648028564814</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44277.648029768519</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44277.648030138887</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44277.648030879631</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44277.648031712961</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44277.648032175923</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44277.648032546298</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44277.648033101854</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44277.648033935184</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44277.648034212965</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44277.648034861108</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44277.648035416663</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44277.648035787039</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44277.648036527775</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44277.648037453706</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44277.648038194442</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44277.648038842592</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44277.648039398147</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44277.648040231485</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44277.648041250002</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44277.648041712964</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44277.648042824076</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44277.64804310185</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44277.648043657406</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44277.648044305555</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44277.648046620372</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44277.648047453702</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44277.648048379633</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44277.648048657407</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44277.648049305557</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44277.648050231481</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44277.648050787036</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>44277.64805152778</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44277.648052546298</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>44277.648053194447</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44277.648054768521</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44277.648055046295</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44277.648055694444</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>44277.648056342594</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>44277.648056620368</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44277.648057268518</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44277.648058009261</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44277.648058379629</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44277.648059027779</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44277.648059398147</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44277.648060324071</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44277.648061990738</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44277.648063009263</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44277.648063379631</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44277.648064305555</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44277.648064768517</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44277.648065601854</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44277.648066712965</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44277.648067175927</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>44277.648068101851</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>44277.648068842595</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44277.648069583331</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44277.64807023148</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>44277.648070694442</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44277.648070972224</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44277.648071527779</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>44277.648072083335</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44277.648072638891</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44277.648073009259</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44277.648073472221</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44277.64807412037</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44277.648074675926</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44277.648075787038</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44277.648076712961</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44277.648077824073</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44277.648078287035</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44277.648078842591</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44277.648080046296</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44277.64808097222</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44277.648081527776</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44277.648081990737</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44277.648082546293</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44277.648082824075</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44277.648083935186</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44277.648084305554</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44277.64808486111</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44277.648085231478</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44277.648085787034</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44277.648086527777</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>44277.648086898145</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>44277.648087731483</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>44277.648088194444</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>44277.648088472219</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>44277.648089212962</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>44277.648089861112</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>44277.648090694442</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>44277.648091249997</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>44277.648091712967</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>44277.648092083335</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>44277.648092453703</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>44277.648093009258</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>44277.648093842596</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>44277.648094398151</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>44277.648094861113</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>44277.648095694443</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>44277.648096342593</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>44277.648097083336</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>44277.648097731479</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>44277.648098379628</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>44277.648099305552</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>44277.648099768521</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>44277.648100138889</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>44277.648100509257</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>44277.648101064813</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>44277.648101527775</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>44277.648102268518</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>44277.6481025463</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>44277.64810337963</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>44277.648103564818</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>44277.648104027779</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>44277.648104305554</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>44277.648104675929</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>44277.648104953703</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>44277.648105324071</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>44277.648105787041</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>44277.648106342589</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>44277.648106990739</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>44277.64810791667</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>44277.648108472225</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>44277.648108935187</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>44277.648109305555</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>44277.648109861111</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>44277.648110509261</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>44277.648111342591</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>44277.648111527778</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>44277.648112268522</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>44277.64811263889</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>44277.648113657408</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>44277.648114027776</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>44277.648119490739</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>44277.648119768521</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>44277.648120231483</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>44277.648120694445</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>44277.648121342594</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>44277.648122175924</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>44277.648122638886</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>44277.648123009261</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>44277.648123657411</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>44277.648123842591</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>44277.648124398147</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>44277.648124768515</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>44277.648125416665</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>44277.648126342596</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>44277.648126990738</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>44277.648127361113</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>44277.64812810185</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>44277.648128472225</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>44277.648129120367</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>44277.648129768517</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>44277.648130324073</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>44277.648130972222</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>44277.648131435184</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>44277.648131898146</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>44277.648133009257</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>44277.648133472219</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>44277.648134120369</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>44277.648135787036</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>44277.648136342592</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>44277.648137546297</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>44277.648137928241</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>44277.648139224541</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>44277.648139502315</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>44277.64814005787</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>44277.648140798614</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>44277.64814153935</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>44277.6481421875</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>44277.648142280093</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>44277.648142557868</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>44277.648142928243</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>44277.648143391205</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>44277.648143761573</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>44277.648144131941</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>44277.648144502316</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>44277.648144872684</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>44277.648145243053</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>44277.648145613428</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>44277.648145983796</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>44277.648146354164</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>44277.648146539352</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>44277.64814690972</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>44277.648147372682</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>44277.648147743057</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>44277.648148020831</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet3!$C$1:$C$132</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="132"/>
-                <c:pt idx="0">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-51</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-51</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-51</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-51</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-51</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>-51</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>-51</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>-51</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-52</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-55</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-4DD0-4B4D-9BBF-9D10164AD156}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>e2001d8712401320d4a0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss.00</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>44277.648016064813</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44277.648016805557</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44277.648017546293</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44277.648017916668</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44277.648018564818</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44277.648019120374</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44277.648020509259</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44277.648021527777</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44277.648021805559</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44277.648022453701</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44277.648024675924</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44277.648026064817</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44277.648026805553</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44277.64802912037</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44277.648029398151</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44277.648030509263</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44277.648031342593</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44277.648036064813</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44277.648037083331</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44277.648038101848</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44277.64803837963</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44277.648039027779</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44277.648039768515</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44277.648040509259</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44277.648041250002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44277.648041990738</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44277.648042361114</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44277.648043379631</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44277.648044490743</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44277.648045046299</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44277.648045694441</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44277.648046342591</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44277.648047453702</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44277.648048194445</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44277.648049768519</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44277.648050509262</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44277.648051157405</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44277.648051805554</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44277.648052268516</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44277.648053194447</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44277.648053657409</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44277.648054398145</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44277.648059861109</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44277.648060601852</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44277.648061157408</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44277.648062175926</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44277.648062546294</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44277.648063657405</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44277.64806486111</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44277.648066435184</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44277.648067546295</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44277.648068287039</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44277.648069027775</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44277.648069861112</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44277.648075231482</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>44277.648076064812</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44277.648076527781</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>44277.648077083337</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44277.648078935184</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44277.648079675928</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44277.648080416664</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>44277.648081157407</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>44277.648083287037</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44277.648093379627</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44277.648094027776</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44277.648095324075</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44277.648096249999</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44277.648096805555</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44277.648097453704</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44277.64809800926</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44277.64809865741</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44277.648099212965</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44277.648099675927</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44277.648100138889</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44277.648100879633</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44277.648101712963</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44277.648102175925</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>44277.648102824074</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>44277.648103287036</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44277.648105972221</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44277.648106620371</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>44277.64810726852</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44277.648107731482</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44277.648108472225</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>44277.648108935187</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44277.648109490743</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44277.648110046299</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44277.648110787035</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44277.648111249997</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44277.648111805553</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44277.64811199074</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44277.648112361108</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44277.648113009258</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44277.64811347222</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44277.648114212963</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44277.648114768519</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44277.648115138887</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44277.648115601849</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44277.648115972224</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44277.648116342592</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44277.648116805554</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44277.648117268516</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44277.648117638892</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44277.64811800926</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44277.648118379628</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44277.64811884259</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44277.648119212965</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>44277.648120879632</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>44277.648121620368</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>44277.648121990744</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>44277.64812273148</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>44277.648123287036</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>44277.648124027779</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>44277.648124953703</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>44277.64812578704</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>44277.648126157408</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>44277.648126712964</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>44277.648127824075</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>44277.648128657405</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>44277.648129583336</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>44277.648130138892</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>44277.648131064816</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>44277.648131249996</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>44277.648133194445</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>44277.648133750001</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>44277.648134490744</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>44277.648135138887</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>44277.648135972224</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>44277.64813652778</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>44277.64813736111</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>44277.648138113429</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>44277.648138761571</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>44277.648139687502</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>44277.648140243058</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>44277.648140613426</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>44277.648141261576</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>44277.648142094906</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$C$1:$C$198</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="198"/>
-                <c:pt idx="0">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-59</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>-58</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>-58</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-4DD0-4B4D-9BBF-9D10164AD156}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>e2001d8712171320c120</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss.00</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>44277.648013564816</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44277.648013935184</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44277.64801449074</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44277.648014861108</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44277.648015231483</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44277.648015601852</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44277.648016527775</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44277.648017361113</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44277.648018101849</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44277.64801902778</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44277.648019583336</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44277.648020046297</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44277.648020972221</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44277.648021250003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44277.648022083333</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44277.64802310185</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44277.648023472226</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44277.648024305556</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44277.648025324073</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44277.648025879629</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44277.648026620373</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44277.648027453703</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44277.648028101852</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44277.648028842596</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44277.648029675925</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44277.648030324075</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44277.648031157405</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44277.648031712961</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44277.648031898148</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44277.648032731478</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44277.648033379628</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44277.648033935184</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44277.64803449074</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44277.648035046295</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44277.648036250001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44277.648036712962</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44277.648037268518</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44277.648038657404</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44277.648038749998</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44277.648039583335</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44277.648040601853</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44277.648040879627</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44277.648041712964</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44277.648042546294</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44277.64804310185</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44277.648043842593</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44277.648044212961</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44277.648045138892</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44277.648045416667</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44277.648046342591</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44277.648046898146</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44277.648047731484</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44277.648048287039</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44277.648048935182</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44277.648049490737</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>44277.648050509262</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44277.648051157405</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>44277.648051620374</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44277.64805236111</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44277.648053935183</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44277.648054490739</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>44277.648054768521</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>44277.648055324076</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44277.648055879632</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44277.648056435188</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44277.64805689815</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44277.648057453705</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44277.648058009261</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44277.648058379629</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44277.648058842591</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44277.648059583335</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44277.648060694446</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>44277.648061157408</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>44277.64806162037</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>44277.648061898151</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>44277.648062916669</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>44277.648063379631</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>44277.648064212961</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>44277.648065046298</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>44277.648065416666</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>44277.648065972222</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>44277.648066250003</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>44277.64806699074</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>44277.648068101851</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>44277.648068842595</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>44277.648069583331</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>44277.648070324074</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>44277.648070509262</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44277.64807171296</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44277.648073564815</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>44277.648074212964</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44277.648074675926</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44277.648075046294</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>44277.648075879632</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>44277.648076527781</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>44277.648077268517</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>44277.648077824073</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>44277.648078379629</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>44277.64807949074</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>44277.648080416664</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>44277.648080694446</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>44277.648081990737</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>44277.648082638887</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>44277.648083101849</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44277.648083842592</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>44277.648084490742</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>44277.64808486111</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>44277.648085416666</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>44277.648085972221</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>44277.64808634259</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>44277.648087175927</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>44277.648087638889</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>44277.648088101851</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>44277.64808875</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>44277.648089305556</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>44277.648090046299</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>44277.648090509261</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>44277.648091249997</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>44277.648091620373</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>44277.648092083335</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>44277.648092361109</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>44277.648092916665</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>44277.648093564814</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>44277.648094398151</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>44277.648094861113</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>44277.648095601849</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$1:$C$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-57</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-56</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-53</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-55</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-4DD0-4B4D-9BBF-9D10164AD156}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5952,6 +3821,8 @@
         <c:axId val="649973599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="-50"/>
+          <c:min val="-65"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6011,6 +3882,10 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6048,6 +3923,24 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Warrior to Mountain Phase: Run 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -6076,10 +3969,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet4!$D$1:$D$69</c:f>
+              <c:f>Sheet4!$D:$D</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="1048576"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6493,10 +4386,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$1:$D$50</c:f>
+              <c:f>Sheet1!$D:$D</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>174</c:v>
                 </c:pt>
@@ -6645,6 +4538,234 @@
                   <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="125">
                   <c:v>174</c:v>
                 </c:pt>
               </c:numCache>
@@ -6658,68 +4779,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet4!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss.00</c:formatCode>
-                <c:ptCount val="1048576"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet4!$D$1:$D$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BD01-4F5C-8056-3BA37DC19ECF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet3!$B$1</c:f>
@@ -7399,10 +5460,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$D$1:$D$132</c:f>
+              <c:f>Sheet3!$D:$D</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="132"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -7798,6 +5859,243 @@
                 </c:pt>
                 <c:pt idx="131">
                   <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7811,7 +6109,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet2!$B$1</c:f>
@@ -8269,10 +6567,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$1:$D$198</c:f>
+              <c:f>Sheet2!$D:$D</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="198"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>174</c:v>
                 </c:pt>
@@ -8683,6 +6981,15 @@
                 </c:pt>
                 <c:pt idx="136">
                   <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>172.31386861313868</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2.2679085494113109</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8771,6 +7078,8 @@
         <c:axId val="649973599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="180"/>
+          <c:min val="160"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8830,6 +7139,10 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -8859,14 +7172,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>90874</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>203047</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8893,16 +7206,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9229,11 +7542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U48" sqref="U48"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="Z72" sqref="Z72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9269,7 +7581,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>44277.648013564816</v>
       </c>
@@ -9297,7 +7609,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>44277.648013935184</v>
       </c>
@@ -9325,7 +7637,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>44277.64801449074</v>
       </c>
@@ -9353,7 +7665,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>44277.648014861108</v>
       </c>
@@ -9381,7 +7693,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>44277.648015231483</v>
       </c>
@@ -9395,7 +7707,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>44277.648015324077</v>
       </c>
@@ -9405,7 +7717,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>44277.648015601852</v>
       </c>
@@ -9433,7 +7745,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>44277.648016064813</v>
       </c>
@@ -9447,7 +7759,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>44277.648016527775</v>
       </c>
@@ -9475,7 +7787,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>44277.648016805557</v>
       </c>
@@ -9503,7 +7815,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>44277.648017361113</v>
       </c>
@@ -9517,7 +7829,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>44277.648017546293</v>
       </c>
@@ -9531,7 +7843,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>44277.648017916668</v>
       </c>
@@ -9545,7 +7857,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>44277.648018101849</v>
       </c>
@@ -9573,7 +7885,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>44277.648018564818</v>
       </c>
@@ -9601,7 +7913,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>44277.64801902778</v>
       </c>
@@ -9615,7 +7927,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>44277.648019120374</v>
       </c>
@@ -9629,7 +7941,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>44277.648019583336</v>
       </c>
@@ -9657,7 +7969,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>44277.648020046297</v>
       </c>
@@ -9685,7 +7997,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>44277.648020509259</v>
       </c>
@@ -9713,7 +8025,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>44277.648020972221</v>
       </c>
@@ -9727,7 +8039,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>44277.648021250003</v>
       </c>
@@ -9741,7 +8053,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>44277.648021527777</v>
       </c>
@@ -9769,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>44277.648021805559</v>
       </c>
@@ -9783,7 +8095,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>44277.648022083333</v>
       </c>
@@ -9811,7 +8123,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>44277.648022453701</v>
       </c>
@@ -9839,7 +8151,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>44277.64802310185</v>
       </c>
@@ -9853,7 +8165,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44277.648023379632</v>
       </c>
@@ -9863,7 +8175,7 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>44277.648023472226</v>
       </c>
@@ -9905,7 +8217,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>44277.648024305556</v>
       </c>
@@ -9919,7 +8231,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>44277.648024490743</v>
       </c>
@@ -9929,7 +8241,7 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>44277.648024675924</v>
       </c>
@@ -9957,7 +8269,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>44277.648025324073</v>
       </c>
@@ -9971,7 +8283,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>44277.648025879629</v>
       </c>
@@ -9999,7 +8311,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>44277.648026064817</v>
       </c>
@@ -10013,7 +8325,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>44277.648026620373</v>
       </c>
@@ -10041,7 +8353,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>44277.648026805553</v>
       </c>
@@ -10055,7 +8367,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>44277.648026898147</v>
       </c>
@@ -10079,7 +8391,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>44277.648027453703</v>
       </c>
@@ -10093,7 +8405,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>44277.648027731484</v>
       </c>
@@ -10103,7 +8415,7 @@
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>44277.648028101852</v>
       </c>
@@ -10145,7 +8457,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>44277.648028842596</v>
       </c>
@@ -10159,7 +8471,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>44277.64802912037</v>
       </c>
@@ -10173,7 +8485,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>44277.648029398151</v>
       </c>
@@ -10187,7 +8499,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>44277.648029675925</v>
       </c>
@@ -10229,7 +8541,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>44277.648030324075</v>
       </c>
@@ -10243,7 +8555,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>44277.648030509263</v>
       </c>
@@ -10271,7 +8583,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>44277.648031157405</v>
       </c>
@@ -10285,7 +8597,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>44277.648031342593</v>
       </c>
@@ -10299,7 +8611,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>44277.648031712961</v>
       </c>
@@ -10327,7 +8639,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>44277.648031898148</v>
       </c>
@@ -10369,7 +8681,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>44277.648032731478</v>
       </c>
@@ -10397,7 +8709,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>44277.648033379628</v>
       </c>
@@ -10411,7 +8723,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>44277.648033935184</v>
       </c>
@@ -10453,7 +8765,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>44277.64803449074</v>
       </c>
@@ -10481,7 +8793,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>44277.648035046295</v>
       </c>
@@ -10523,7 +8835,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>44277.648036064813</v>
       </c>
@@ -10537,7 +8849,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>44277.648036250001</v>
       </c>
@@ -10565,7 +8877,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>44277.648036712962</v>
       </c>
@@ -10579,7 +8891,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>44277.648037083331</v>
       </c>
@@ -10593,7 +8905,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>44277.648037268518</v>
       </c>
@@ -10621,7 +8933,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>44277.648038101848</v>
       </c>
@@ -10649,7 +8961,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>44277.64803837963</v>
       </c>
@@ -10663,7 +8975,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>44277.648038657404</v>
       </c>
@@ -10677,7 +8989,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>44277.648038657404</v>
       </c>
@@ -10687,7 +8999,7 @@
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
     </row>
-    <row r="106" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>44277.648038749998</v>
       </c>
@@ -10715,7 +9027,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>44277.648039027779</v>
       </c>
@@ -10743,7 +9055,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>44277.648039583335</v>
       </c>
@@ -10757,7 +9069,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>44277.648039768515</v>
       </c>
@@ -10785,7 +9097,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>44277.648040509259</v>
       </c>
@@ -10799,7 +9111,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>44277.648040601853</v>
       </c>
@@ -10813,7 +9125,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>44277.648040879627</v>
       </c>
@@ -10841,7 +9153,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>44277.648041250002</v>
       </c>
@@ -10855,7 +9167,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>44277.648041712964</v>
       </c>
@@ -10883,7 +9195,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>44277.648041990738</v>
       </c>
@@ -10897,7 +9209,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>44277.648042361114</v>
       </c>
@@ -10911,7 +9223,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>44277.648042546294</v>
       </c>
@@ -10939,7 +9251,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>44277.64804310185</v>
       </c>
@@ -10967,7 +9279,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>44277.648043379631</v>
       </c>
@@ -10995,7 +9307,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>44277.648043842593</v>
       </c>
@@ -11009,7 +9321,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>44277.648044212961</v>
       </c>
@@ -11037,7 +9349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>44277.648044490743</v>
       </c>
@@ -11051,7 +9363,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>44277.648045046299</v>
       </c>
@@ -11065,7 +9377,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>44277.648045138892</v>
       </c>
@@ -11079,7 +9391,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>44277.648045231479</v>
       </c>
@@ -11089,7 +9401,7 @@
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
     </row>
-    <row r="135" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>44277.648045416667</v>
       </c>
@@ -11103,7 +9415,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>44277.648045694441</v>
       </c>
@@ -11117,7 +9429,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>44277.648046342591</v>
       </c>
@@ -11131,7 +9443,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>44277.648046342591</v>
       </c>
@@ -11145,7 +9457,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>44277.648046620372</v>
       </c>
@@ -11169,7 +9481,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>44277.648046898146</v>
       </c>
@@ -11197,7 +9509,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>44277.648047453702</v>
       </c>
@@ -11211,7 +9523,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>44277.648047731484</v>
       </c>
@@ -11225,7 +9537,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>44277.648048194445</v>
       </c>
@@ -11239,7 +9551,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>44277.648048287039</v>
       </c>
@@ -11281,7 +9593,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>44277.648048935182</v>
       </c>
@@ -11309,7 +9621,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>44277.648049490737</v>
       </c>
@@ -11323,7 +9635,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>44277.648049768519</v>
       </c>
@@ -11337,7 +9649,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>44277.648049953707</v>
       </c>
@@ -11361,7 +9673,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>44277.648050509262</v>
       </c>
@@ -11375,7 +9687,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>44277.648050509262</v>
       </c>
@@ -11403,7 +9715,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>44277.648051157405</v>
       </c>
@@ -11417,7 +9729,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>44277.648051157405</v>
       </c>
@@ -11445,7 +9757,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>44277.648051620374</v>
       </c>
@@ -11459,7 +9771,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>44277.648051805554</v>
       </c>
@@ -11473,7 +9785,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>44277.648052268516</v>
       </c>
@@ -11487,7 +9799,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>44277.64805236111</v>
       </c>
@@ -11515,7 +9827,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>44277.648053194447</v>
       </c>
@@ -11543,7 +9855,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>44277.648053472221</v>
       </c>
@@ -11553,7 +9865,7 @@
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
     </row>
-    <row r="169" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>44277.648053657409</v>
       </c>
@@ -11567,7 +9879,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>44277.648053935183</v>
       </c>
@@ -11581,7 +9893,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>44277.648054398145</v>
       </c>
@@ -11595,7 +9907,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>44277.648054490739</v>
       </c>
@@ -11623,7 +9935,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>44277.648054768521</v>
       </c>
@@ -11651,7 +9963,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>44277.648055324076</v>
       </c>
@@ -11679,7 +9991,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>44277.648055879632</v>
       </c>
@@ -11707,7 +10019,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>44277.648056435188</v>
       </c>
@@ -11735,7 +10047,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>44277.64805689815</v>
       </c>
@@ -11763,7 +10075,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>44277.648057453705</v>
       </c>
@@ -11791,7 +10103,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>44277.648058009261</v>
       </c>
@@ -11805,7 +10117,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>44277.648058379629</v>
       </c>
@@ -11833,7 +10145,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>44277.648058842591</v>
       </c>
@@ -11875,7 +10187,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>44277.648059583335</v>
       </c>
@@ -11889,7 +10201,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>44277.648059861109</v>
       </c>
@@ -11917,7 +10229,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>44277.648060601852</v>
       </c>
@@ -11931,7 +10243,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>44277.648060694446</v>
       </c>
@@ -11945,7 +10257,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>44277.648061157408</v>
       </c>
@@ -11959,7 +10271,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>44277.648061157408</v>
       </c>
@@ -11973,7 +10285,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>44277.648061435182</v>
       </c>
@@ -11983,7 +10295,7 @@
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
     </row>
-    <row r="200" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>44277.64806162037</v>
       </c>
@@ -11997,7 +10309,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>44277.648061805558</v>
       </c>
@@ -12007,7 +10319,7 @@
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
     </row>
-    <row r="202" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>44277.648061898151</v>
       </c>
@@ -12035,7 +10347,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>44277.648062175926</v>
       </c>
@@ -12049,7 +10361,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>44277.648062546294</v>
       </c>
@@ -12063,7 +10375,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>44277.648062916669</v>
       </c>
@@ -12105,7 +10417,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>44277.648063379631</v>
       </c>
@@ -12119,7 +10431,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>44277.648063657405</v>
       </c>
@@ -12133,7 +10445,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>44277.648064212961</v>
       </c>
@@ -12175,7 +10487,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>44277.64806486111</v>
       </c>
@@ -12189,7 +10501,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>44277.648065046298</v>
       </c>
@@ -12203,7 +10515,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>44277.648065416666</v>
       </c>
@@ -12231,7 +10543,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>44277.648065972222</v>
       </c>
@@ -12245,7 +10557,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>44277.648066250003</v>
       </c>
@@ -12259,7 +10571,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>44277.648066435184</v>
       </c>
@@ -12287,7 +10599,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>44277.64806699074</v>
       </c>
@@ -12315,7 +10627,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>44277.648067546295</v>
       </c>
@@ -12329,7 +10641,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>44277.648068101851</v>
       </c>
@@ -12357,7 +10669,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>44277.648068287039</v>
       </c>
@@ -12371,7 +10683,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>44277.648068842595</v>
       </c>
@@ -12399,7 +10711,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>44277.648069027775</v>
       </c>
@@ -12427,7 +10739,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>44277.648069583331</v>
       </c>
@@ -12441,7 +10753,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>44277.648069861112</v>
       </c>
@@ -12469,7 +10781,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>44277.648070324074</v>
       </c>
@@ -12483,7 +10795,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>44277.648070509262</v>
       </c>
@@ -12539,7 +10851,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>44277.64807171296</v>
       </c>
@@ -12595,7 +10907,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>44277.648073009259</v>
       </c>
@@ -12619,7 +10931,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>44277.648073564815</v>
       </c>
@@ -12633,7 +10945,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>44277.648073842596</v>
       </c>
@@ -12657,7 +10969,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>44277.648074212964</v>
       </c>
@@ -12685,7 +10997,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>44277.648074675926</v>
       </c>
@@ -12699,7 +11011,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>44277.648074861114</v>
       </c>
@@ -12709,7 +11021,7 @@
       <c r="C252" s="6"/>
       <c r="D252" s="6"/>
     </row>
-    <row r="253" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>44277.648075046294</v>
       </c>
@@ -12723,7 +11035,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>44277.648075231482</v>
       </c>
@@ -12751,7 +11063,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>44277.648075879632</v>
       </c>
@@ -12765,7 +11077,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>44277.648076064812</v>
       </c>
@@ -12779,7 +11091,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>44277.648076527781</v>
       </c>
@@ -12793,7 +11105,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>44277.648076527781</v>
       </c>
@@ -12821,7 +11133,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>44277.648077083337</v>
       </c>
@@ -12835,7 +11147,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>44277.648077268517</v>
       </c>
@@ -12849,7 +11161,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>44277.648077824073</v>
       </c>
@@ -12877,7 +11189,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>44277.648078101854</v>
       </c>
@@ -12901,7 +11213,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>44277.648078379629</v>
       </c>
@@ -12929,7 +11241,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>44277.648078935184</v>
       </c>
@@ -12943,7 +11255,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>44277.648079212966</v>
       </c>
@@ -12953,7 +11265,7 @@
       <c r="C270" s="6"/>
       <c r="D270" s="6"/>
     </row>
-    <row r="271" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>44277.64807949074</v>
       </c>
@@ -12967,7 +11279,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>44277.648079675928</v>
       </c>
@@ -12995,7 +11307,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>44277.648080416664</v>
       </c>
@@ -13009,7 +11321,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>44277.648080416664</v>
       </c>
@@ -13023,7 +11335,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>44277.648080694446</v>
       </c>
@@ -13051,7 +11363,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>44277.648081157407</v>
       </c>
@@ -13079,7 +11391,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>44277.648081990737</v>
       </c>
@@ -13107,7 +11419,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>44277.648082175925</v>
       </c>
@@ -13131,7 +11443,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <v>44277.648082638887</v>
       </c>
@@ -13159,7 +11471,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <v>44277.648083101849</v>
       </c>
@@ -13173,7 +11485,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <v>44277.648083287037</v>
       </c>
@@ -13187,7 +11499,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <v>44277.648083842592</v>
       </c>
@@ -13229,7 +11541,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <v>44277.648084490742</v>
       </c>
@@ -13243,7 +11555,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <v>44277.648084768516</v>
       </c>
@@ -13267,7 +11579,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <v>44277.64808486111</v>
       </c>
@@ -13295,7 +11607,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <v>44277.648085416666</v>
       </c>
@@ -13323,7 +11635,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <v>44277.648085972221</v>
       </c>
@@ -13337,7 +11649,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <v>44277.64808634259</v>
       </c>
@@ -13379,7 +11691,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>44277.648087175927</v>
       </c>
@@ -13393,7 +11705,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <v>44277.648087638889</v>
       </c>
@@ -13421,7 +11733,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <v>44277.648088101851</v>
       </c>
@@ -13463,7 +11775,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <v>44277.64808875</v>
       </c>
@@ -13491,7 +11803,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <v>44277.648089305556</v>
       </c>
@@ -13505,7 +11817,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <v>44277.64808939815</v>
       </c>
@@ -13529,7 +11841,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <v>44277.648090046299</v>
       </c>
@@ -13543,7 +11855,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <v>44277.648090509261</v>
       </c>
@@ -13571,7 +11883,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <v>44277.648091249997</v>
       </c>
@@ -13599,7 +11911,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <v>44277.648091620373</v>
       </c>
@@ -13627,7 +11939,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <v>44277.648092083335</v>
       </c>
@@ -13655,7 +11967,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
         <v>44277.648092361109</v>
       </c>
@@ -13683,7 +11995,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
         <v>44277.648092916665</v>
       </c>
@@ -13711,7 +12023,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
         <v>44277.648093379627</v>
       </c>
@@ -13725,7 +12037,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
         <v>44277.648093564814</v>
       </c>
@@ -13753,7 +12065,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
         <v>44277.648094027776</v>
       </c>
@@ -13781,7 +12093,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
         <v>44277.648094398151</v>
       </c>
@@ -13795,7 +12107,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
         <v>44277.648094861113</v>
       </c>
@@ -13823,7 +12135,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
         <v>44277.648095324075</v>
       </c>
@@ -13837,7 +12149,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
         <v>44277.648095601849</v>
       </c>
@@ -13865,7 +12177,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
         <v>44277.648096249999</v>
       </c>
@@ -13893,7 +12205,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
         <v>44277.648096342593</v>
       </c>
@@ -13903,7 +12215,7 @@
       <c r="C339" s="6"/>
       <c r="D339" s="6"/>
     </row>
-    <row r="340" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
         <v>44277.648096620367</v>
       </c>
@@ -13913,7 +12225,7 @@
       <c r="C340" s="6"/>
       <c r="D340" s="6"/>
     </row>
-    <row r="341" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
         <v>44277.648096805555</v>
       </c>
@@ -13941,7 +12253,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
         <v>44277.648097453704</v>
       </c>
@@ -13969,7 +12281,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
         <v>44277.64809800926</v>
       </c>
@@ -13997,7 +12309,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
         <v>44277.64809865741</v>
       </c>
@@ -14011,7 +12323,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
         <v>44277.648099212965</v>
       </c>
@@ -14039,7 +12351,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
         <v>44277.648099675927</v>
       </c>
@@ -14067,7 +12379,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
         <v>44277.648100138889</v>
       </c>
@@ -14109,7 +12421,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
         <v>44277.648100879633</v>
       </c>
@@ -14151,7 +12463,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
         <v>44277.648101712963</v>
       </c>
@@ -14165,7 +12477,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
         <v>44277.648102175925</v>
       </c>
@@ -14207,7 +12519,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
         <v>44277.648102824074</v>
       </c>
@@ -14221,7 +12533,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
         <v>44277.648103287036</v>
       </c>
@@ -14347,7 +12659,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
         <v>44277.648105972221</v>
       </c>
@@ -14375,7 +12687,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
         <v>44277.648106620371</v>
       </c>
@@ -14403,7 +12715,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A376" s="4">
         <v>44277.64810726852</v>
       </c>
@@ -14417,7 +12729,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A377" s="4">
         <v>44277.648107453701</v>
       </c>
@@ -14427,7 +12739,7 @@
       <c r="C377" s="6"/>
       <c r="D377" s="6"/>
     </row>
-    <row r="378" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A378" s="4">
         <v>44277.648107731482</v>
       </c>
@@ -14469,7 +12781,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A381" s="4">
         <v>44277.648108472225</v>
       </c>
@@ -14483,7 +12795,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A382" s="4">
         <v>44277.648108935187</v>
       </c>
@@ -14525,7 +12837,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A385" s="4">
         <v>44277.648109490743</v>
       </c>
@@ -14553,7 +12865,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A387" s="4">
         <v>44277.648110046299</v>
       </c>
@@ -14581,7 +12893,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A389" s="4">
         <v>44277.648110787035</v>
       </c>
@@ -14595,7 +12907,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A390" s="4">
         <v>44277.648111249997</v>
       </c>
@@ -14637,7 +12949,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A393" s="4">
         <v>44277.648111805553</v>
       </c>
@@ -14651,7 +12963,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A394" s="4">
         <v>44277.64811199074</v>
       </c>
@@ -14679,7 +12991,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A396" s="4">
         <v>44277.648112361108</v>
       </c>
@@ -14707,7 +13019,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A398" s="4">
         <v>44277.648113009258</v>
       </c>
@@ -14721,7 +13033,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A399" s="4">
         <v>44277.64811347222</v>
       </c>
@@ -14763,7 +13075,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A402" s="4">
         <v>44277.648114212963</v>
       </c>
@@ -14777,7 +13089,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A403" s="4">
         <v>44277.648114768519</v>
       </c>
@@ -14791,7 +13103,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A404" s="4">
         <v>44277.648115138887</v>
       </c>
@@ -14805,7 +13117,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A405" s="4">
         <v>44277.648115601849</v>
       </c>
@@ -14819,7 +13131,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A406" s="4">
         <v>44277.648115972224</v>
       </c>
@@ -14833,7 +13145,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A407" s="4">
         <v>44277.648116342592</v>
       </c>
@@ -14847,7 +13159,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A408" s="4">
         <v>44277.648116805554</v>
       </c>
@@ -14861,7 +13173,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A409" s="4">
         <v>44277.648117268516</v>
       </c>
@@ -14875,7 +13187,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A410" s="4">
         <v>44277.648117638892</v>
       </c>
@@ -14889,7 +13201,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A411" s="4">
         <v>44277.64811800926</v>
       </c>
@@ -14903,7 +13215,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A412" s="4">
         <v>44277.648118379628</v>
       </c>
@@ -14917,7 +13229,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A413" s="4">
         <v>44277.64811884259</v>
       </c>
@@ -14931,7 +13243,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A414" s="4">
         <v>44277.648118935183</v>
       </c>
@@ -14941,7 +13253,7 @@
       <c r="C414" s="6"/>
       <c r="D414" s="6"/>
     </row>
-    <row r="415" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A415" s="4">
         <v>44277.648119212965</v>
       </c>
@@ -15011,7 +13323,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A420" s="4">
         <v>44277.648120879632</v>
       </c>
@@ -15039,7 +13351,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A422" s="4">
         <v>44277.648121620368</v>
       </c>
@@ -15053,7 +13365,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A423" s="4">
         <v>44277.648121990744</v>
       </c>
@@ -15095,7 +13407,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A426" s="4">
         <v>44277.64812273148</v>
       </c>
@@ -15123,7 +13435,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A428" s="4">
         <v>44277.648123287036</v>
       </c>
@@ -15165,7 +13477,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A431" s="4">
         <v>44277.648124027779</v>
       </c>
@@ -15207,7 +13519,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A434" s="4">
         <v>44277.648124953703</v>
       </c>
@@ -15235,7 +13547,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A436" s="4">
         <v>44277.64812578704</v>
       </c>
@@ -15249,7 +13561,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A437" s="4">
         <v>44277.648126157408</v>
       </c>
@@ -15277,7 +13589,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A439" s="4">
         <v>44277.648126712964</v>
       </c>
@@ -15319,7 +13631,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A442" s="4">
         <v>44277.648127824075</v>
       </c>
@@ -15361,7 +13673,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A445" s="4">
         <v>44277.648128657405</v>
       </c>
@@ -15389,7 +13701,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A447" s="4">
         <v>44277.648129583336</v>
       </c>
@@ -15417,7 +13729,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A449" s="4">
         <v>44277.648130138892</v>
       </c>
@@ -15445,7 +13757,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A451" s="4">
         <v>44277.648130416666</v>
       </c>
@@ -15469,7 +13781,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A453" s="4">
         <v>44277.648131064816</v>
       </c>
@@ -15483,7 +13795,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A454" s="4">
         <v>44277.648131249996</v>
       </c>
@@ -15539,7 +13851,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A458" s="4">
         <v>44277.648133194445</v>
       </c>
@@ -15567,7 +13879,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A460" s="4">
         <v>44277.648133750001</v>
       </c>
@@ -15595,7 +13907,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A462" s="4">
         <v>44277.648134490744</v>
       </c>
@@ -15609,7 +13921,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A463" s="4">
         <v>44277.648135138887</v>
       </c>
@@ -15637,7 +13949,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A465" s="4">
         <v>44277.648135972224</v>
       </c>
@@ -15665,7 +13977,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A467" s="4">
         <v>44277.64813652778</v>
       </c>
@@ -15679,7 +13991,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A468" s="4">
         <v>44277.64813736111</v>
       </c>
@@ -15721,7 +14033,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A471" s="4">
         <v>44277.648138113429</v>
       </c>
@@ -15735,7 +14047,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A472" s="4">
         <v>44277.648138761571</v>
       </c>
@@ -15777,7 +14089,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A475" s="4">
         <v>44277.648139687502</v>
       </c>
@@ -15805,7 +14117,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A477" s="4">
         <v>44277.648140243058</v>
       </c>
@@ -15819,7 +14131,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A478" s="4">
         <v>44277.648140613426</v>
       </c>
@@ -15847,7 +14159,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A480" s="4">
         <v>44277.648141261576</v>
       </c>
@@ -15875,7 +14187,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A482" s="4">
         <v>44277.648142094906</v>
       </c>
@@ -15903,7 +14215,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A484" s="4">
         <v>44277.6481421875</v>
       </c>
@@ -16152,18 +14464,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D501" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="e2001d8712461320db93"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D501" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D2:D500" xr:uid="{9D4B843C-7F14-45B3-BC3E-520DB79CAF21}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C2:C500" xr:uid="{5EBA12B4-A683-41D3-BB90-193F2D415EEF}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B2:B500" xr:uid="{28E11567-0CA7-4F53-9C24-270753CB2D71}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A2:A500" xr:uid="{DCF3E8D9-549F-4DBA-84FC-DDBF403E4902}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D2:D500" xr:uid="{D9E685C7-F3B0-4B11-81B9-81BF6F6FE301}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C2:C500" xr:uid="{1336AD97-37ED-4A7F-8F6E-DB8AF62F645C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B2:B500" xr:uid="{E6D6E93A-3D5F-4FC9-B97D-9EC87FB13CFA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A2:A500" xr:uid="{D9E353CF-08EA-4994-BA0E-9A0E02482471}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16172,105 +14478,129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC26750B-BD47-411C-A0C4-877562E69E36}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D77" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F1" t="e">
+        <f>AVERAGE(C:C)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G1" t="e">
+        <f>AVERAGE(D:D)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F2" t="e">
+        <f>STDEV(C:C)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G2" t="e">
+        <f>STDEV(D:D)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f>COUNT(C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>COUNT(D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
@@ -16607,10 +14937,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G278"/>
+  <dimension ref="A1:G292"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212:D278"/>
+    <sheetView topLeftCell="A202" workbookViewId="0">
+      <selection sqref="A1:D211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19990,17 +18320,101 @@
       <c r="D277" s="6"/>
     </row>
     <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A278" s="7"/>
-      <c r="B278" s="8"/>
-      <c r="C278" s="9"/>
-      <c r="D278" s="9"/>
+      <c r="A278" s="4"/>
+      <c r="B278" s="5"/>
+      <c r="C278" s="6"/>
+      <c r="D278" s="6"/>
+    </row>
+    <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A279" s="4"/>
+      <c r="B279" s="5"/>
+      <c r="C279" s="6"/>
+      <c r="D279" s="6"/>
+    </row>
+    <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A280" s="4"/>
+      <c r="B280" s="5"/>
+      <c r="C280" s="6"/>
+      <c r="D280" s="6"/>
+    </row>
+    <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A281" s="4"/>
+      <c r="B281" s="5"/>
+      <c r="C281" s="6"/>
+      <c r="D281" s="6"/>
+    </row>
+    <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A282" s="4"/>
+      <c r="B282" s="5"/>
+      <c r="C282" s="6"/>
+      <c r="D282" s="6"/>
+    </row>
+    <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A283" s="4"/>
+      <c r="B283" s="5"/>
+      <c r="C283" s="6"/>
+      <c r="D283" s="6"/>
+    </row>
+    <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A284" s="4"/>
+      <c r="B284" s="5"/>
+      <c r="C284" s="6"/>
+      <c r="D284" s="6"/>
+    </row>
+    <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A285" s="4"/>
+      <c r="B285" s="5"/>
+      <c r="C285" s="6"/>
+      <c r="D285" s="6"/>
+    </row>
+    <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A286" s="4"/>
+      <c r="B286" s="5"/>
+      <c r="C286" s="6"/>
+      <c r="D286" s="6"/>
+    </row>
+    <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A287" s="4"/>
+      <c r="B287" s="5"/>
+      <c r="C287" s="6"/>
+      <c r="D287" s="6"/>
+    </row>
+    <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A288" s="4"/>
+      <c r="B288" s="5"/>
+      <c r="C288" s="6"/>
+      <c r="D288" s="6"/>
+    </row>
+    <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A289" s="4"/>
+      <c r="B289" s="5"/>
+      <c r="C289" s="6"/>
+      <c r="D289" s="6"/>
+    </row>
+    <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A290" s="4"/>
+      <c r="B290" s="5"/>
+      <c r="C290" s="6"/>
+      <c r="D290" s="6"/>
+    </row>
+    <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A291" s="4"/>
+      <c r="B291" s="5"/>
+      <c r="C291" s="6"/>
+      <c r="D291" s="6"/>
+    </row>
+    <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A292" s="4"/>
+      <c r="B292" s="5"/>
+      <c r="C292" s="6"/>
+      <c r="D292" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A1:A210 A212:A277" xr:uid="{A738B4EA-076B-40A1-A0D1-E4D42B34918D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B1:B210 B212:B277" xr:uid="{F85FC7DB-D31B-4C88-AA1A-92C95EB3DED0}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C1:C210 C212:C277" xr:uid="{39357680-914D-49E5-8AE5-D2451C160F82}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D1:D210 D212:D277" xr:uid="{CF01AD0E-A081-4860-95D3-BA3FB369906E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A1:A210 A212:A292" xr:uid="{A738B4EA-076B-40A1-A0D1-E4D42B34918D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B1:B210 B212:B292" xr:uid="{F85FC7DB-D31B-4C88-AA1A-92C95EB3DED0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C1:C210 C212:C292" xr:uid="{39357680-914D-49E5-8AE5-D2451C160F82}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D1:D210 D212:D292" xr:uid="{CF01AD0E-A081-4860-95D3-BA3FB369906E}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20010,8 +18424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D137"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138:D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22367,9 +20781,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
+    <sheetView topLeftCell="A115" workbookViewId="0">
       <selection sqref="A1:D126"/>
     </sheetView>
   </sheetViews>
@@ -24163,12 +22577,138 @@
         <v>174</v>
       </c>
     </row>
+    <row r="127" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+    </row>
+    <row r="137" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A1:A126" xr:uid="{F00659E5-718B-4AA0-B6BD-F4AFBDF1995D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B1:B126" xr:uid="{AC440729-ABF3-486D-98B9-AB69A179330A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C1:C126" xr:uid="{F6B3D386-5C64-473F-9260-1D128C877739}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D1:D126" xr:uid="{3C738301-7B46-40D3-9055-D17A8AA45AAA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH1]" sqref="A1:A147" xr:uid="{F00659E5-718B-4AA0-B6BD-F4AFBDF1995D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH2]" sqref="B1:B147" xr:uid="{AC440729-ABF3-486D-98B9-AB69A179330A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH3]" sqref="C1:C147" xr:uid="{F6B3D386-5C64-473F-9260-1D128C877739}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TBL_HST[CH4]" sqref="D1:D147" xr:uid="{3C738301-7B46-40D3-9055-D17A8AA45AAA}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
